--- a/src/main/resources/spec/dataTypes.xlsx
+++ b/src/main/resources/spec/dataTypes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -94,13 +94,13 @@
     <t>trueFalse</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
     <t>Boolean</t>
   </si>
   <si>
     <t>invalidTrueFalse</t>
-  </si>
-  <si>
-    <t>Green</t>
   </si>
   <si>
     <t>True</t>
@@ -118,13 +118,16 @@
     <t>Info</t>
   </si>
   <si>
+    <t>Warning</t>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
-    <t>Warning</t>
+    <t>futureDate</t>
   </si>
   <si>
-    <t>futureDate</t>
+    <t>Error</t>
   </si>
   <si>
     <t>Date</t>
@@ -133,13 +136,13 @@
     <t>invalidFutureDate</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>qty</t>
   </si>
   <si>
     <t>invalidQty</t>
+  </si>
+  <si>
+    <t>987654321012345678</t>
   </si>
   <si>
     <t>pastDate</t>
@@ -378,10 +381,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -393,7 +396,7 @@
         <v>28</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -406,10 +409,10 @@
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -450,8 +453,8 @@
       <c r="H6" s="2">
         <v>1.0</v>
       </c>
-      <c r="I6" s="2">
-        <v>9.99999999E8</v>
+      <c r="I6" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -463,13 +466,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -491,19 +494,19 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2">
         <v>4.0</v>
@@ -523,13 +526,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -561,10 +564,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
@@ -587,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -5209,7 +5212,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -5267,7 +5270,7 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -5281,7 +5284,7 @@
         <v>3.0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
